--- a/data/case1/13/P1_1.xlsx
+++ b/data/case1/13/P1_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.41185312474381419</v>
+        <v>0.34640275735485204</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.009999999360463363</v>
+        <v>-0.0099999993219412886</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.040043604232906205</v>
+        <v>-0.0089999993110687626</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.01199999983528599</v>
+        <v>-0.011999999809692241</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999993610766467</v>
+        <v>-0.0059999993139818741</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999993463577539</v>
+        <v>-0.0059999992857093787</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999233208499</v>
+        <v>-0.019999999161852244</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999227139575</v>
+        <v>-0.019999999152794601</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.005999999331767647</v>
+        <v>-0.0059999992631274424</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999993262849216</v>
+        <v>-0.0059999992537100866</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999993387406789</v>
+        <v>-0.0044999992663541377</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999993257311424</v>
+        <v>-0.0059999992512662637</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.016752945703289335</v>
+        <v>-0.005999999242183307</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999270960515</v>
+        <v>-0.011999999187786159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999993165140708</v>
+        <v>-0.0059999992379156097</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999993145627428</v>
+        <v>-0.0059999992366932542</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999993120039008</v>
+        <v>-0.0059999992357449017</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999992876750312</v>
+        <v>0.0010674999390012374</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.096947246689258471</v>
+        <v>-0.0089999993299367809</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.008999999360671751</v>
+        <v>-0.053028105020640481</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.008999999359880384</v>
+        <v>-0.0089999993128024869</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.008999999359362576</v>
+        <v>-0.0089999993121665511</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999993442635429</v>
+        <v>-0.0089999993095286612</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999074145755</v>
+        <v>0.026461655237249637</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999069274985</v>
+        <v>-0.041999999017933831</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999993458816903</v>
+        <v>-0.0059999992832757698</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999993452355405</v>
+        <v>-0.0068804545131380124</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999993430412957</v>
+        <v>-0.0059999992654242718</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.051868685000984627</v>
+        <v>-0.011999999203823108</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999226620435</v>
+        <v>-0.017248229732540921</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999260394858</v>
+        <v>-0.014999999165999256</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999211880116</v>
+        <v>-0.020999999112985002</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999993306778521</v>
+        <v>-0.0059999992421690962</v>
       </c>
     </row>
   </sheetData>
